--- a/public/system/spreadsheet/template/order_template.xlsx
+++ b/public/system/spreadsheet/template/order_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="583" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,24 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>#HeaderRow#</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>#logo#</t>
   </si>
   <si>
-    <t>   利恩国际贸易有限公司</t>
+    <t>利恩国际贸易有限公司</t>
   </si>
   <si>
     <t>LION INTERNATIONAL TRADING  CO.,LTD</t>
-  </si>
-  <si>
-    <t>   </t>
   </si>
   <si>
     <t>采购单 PURCHASE LIST</t>
@@ -65,8 +59,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">订单号 </t>
+    <t>订单号 LIST NO.：</t>
+  </si>
+  <si>
+    <t>"order_id"</t>
+  </si>
+  <si>
+    <t>TEL/FAX:</t>
+  </si>
+  <si>
+    <t>0086-579-85566613</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">供应商 </t>
     </r>
     <r>
       <rPr>
@@ -77,7 +83,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">LIST NO.</t>
+      <t xml:space="preserve">SUPPLIER </t>
     </r>
     <r>
       <rPr>
@@ -88,18 +94,15 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">：”order_id”</t>
-    </r>
-  </si>
-  <si>
-    <t>TEL/FAX: </t>
-  </si>
-  <si>
-    <t>0086-579-85566613 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">供应商 </t>
+      <t xml:space="preserve">：</t>
+    </r>
+  </si>
+  <si>
+    <t>"supplier_name"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">邮箱</t>
     </r>
     <r>
       <rPr>
@@ -110,7 +113,70 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">SUPPLIER </t>
+      <t xml:space="preserve">E-mail:</t>
+    </r>
+  </si>
+  <si>
+    <t>liontradeco@yahoo.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">电  话 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TEL:</t>
+    </r>
+  </si>
+  <si>
+    <t>"supplier_contact_no"</t>
+  </si>
+  <si>
+    <t>Q Q:</t>
+  </si>
+  <si>
+    <t>295666593  LION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">联系人 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CONTECT:</t>
+    </r>
+  </si>
+  <si>
+    <t>"supplier_contact_person"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">跟单员 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Follower</t>
     </r>
     <r>
       <rPr>
@@ -125,11 +191,11 @@
     </r>
   </si>
   <si>
-    <t>“supplier_name”</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">邮箱</t>
+    <t>"follower"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">采购日期 </t>
     </r>
     <r>
       <rPr>
@@ -140,15 +206,12 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">E-mail:</t>
-    </r>
-  </si>
-  <si>
-    <t>liontradeco@yahoo.com</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">电  话 </t>
+      <t xml:space="preserve">PURCHASE DATE:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">客户名 </t>
     </r>
     <r>
       <rPr>
@@ -159,21 +222,26 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">TEL:</t>
-    </r>
-  </si>
-  <si>
-    <t>“supplier_contact_no”</t>
-  </si>
-  <si>
-    <t>Q Q:</t>
-  </si>
-  <si>
-    <t>295666593  LION</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">联系人 </t>
+      <t xml:space="preserve">CLIENT</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：</t>
+    </r>
+  </si>
+  <si>
+    <t>"customer"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">交货日期 </t>
     </r>
     <r>
       <rPr>
@@ -184,26 +252,165 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">CONTECT:</t>
-    </r>
-  </si>
-  <si>
-    <t>“supplier_contact_person”</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">跟单员 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
+      <t xml:space="preserve">DELIVERY DATE:</t>
+    </r>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ITEM NO.</t>
+  </si>
+  <si>
+    <t>PICTURE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SPECIFICATION</t>
+  </si>
+  <si>
+    <t>CTNS</t>
+  </si>
+  <si>
+    <t>Q'TY/CTN</t>
+  </si>
+  <si>
+    <t>UNIT PRICE</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT</t>
+  </si>
+  <si>
+    <t>CBM</t>
+  </si>
+  <si>
+    <t>G.W</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>货号</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>货物描述</t>
+  </si>
+  <si>
+    <t>规格说明</t>
+  </si>
+  <si>
+    <t>箱数</t>
+  </si>
+  <si>
+    <t>装箱数</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>体积</t>
+  </si>
+  <si>
+    <t>毛重</t>
+  </si>
+  <si>
+    <t>شماره</t>
+  </si>
+  <si>
+    <t>کد</t>
+  </si>
+  <si>
+    <t>جنس اسم</t>
+  </si>
+  <si>
+    <t>شرح</t>
+  </si>
+  <si>
+    <t>کارتن</t>
+  </si>
+  <si>
+    <t>تعداد</t>
+  </si>
+  <si>
+    <t>قیمت</t>
+  </si>
+  <si>
+    <t>مبلغ</t>
+  </si>
+  <si>
+    <t>حجم</t>
+  </si>
+  <si>
+    <t>ناخالص</t>
+  </si>
+  <si>
+    <t>#ContentRow#</t>
+  </si>
+  <si>
+    <t>"order_item_id"</t>
+  </si>
+  <si>
+    <t>"product_code"</t>
+  </si>
+  <si>
+    <t>"image_space"</t>
+  </si>
+  <si>
+    <t>"product_name"</t>
+  </si>
+  <si>
+    <t>"spec"</t>
+  </si>
+  <si>
+    <t>"quantity_per_unit"</t>
+  </si>
+  <si>
+    <t>"no_of_unit"</t>
+  </si>
+  <si>
+    <t>"item_price"</t>
+  </si>
+  <si>
+    <t>"item_total_price"</t>
+  </si>
+  <si>
+    <t>"volume_per_unit"</t>
+  </si>
+  <si>
+    <t>"weight_per_unit"</t>
+  </si>
+  <si>
+    <t>#FooterRow#</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">جمع</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Follower</t>
+      <t xml:space="preserve">TOTAL:</t>
+    </r>
+  </si>
+  <si>
+    <t>{sum}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SPECIAL REMARKS </t>
     </r>
     <r>
       <rPr>
@@ -214,15 +421,12 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">：</t>
-    </r>
-  </si>
-  <si>
-    <t>“staff_name”</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">采购日期 </t>
+      <t xml:space="preserve">特别备注：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">唛头 </t>
     </r>
     <r>
       <rPr>
@@ -233,28 +437,51 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">PURCHASE DATE:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">客户名 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t xml:space="preserve">MARKS</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                </t>
+    </r>
+  </si>
+  <si>
+    <t>"marks"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">定金</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">CLIENT</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
+      <t xml:space="preserve">DEPOSIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
@@ -262,355 +489,101 @@
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
-  </si>
-  <si>
-    <t>“customer”</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">交货日期 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">               "</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">DELIVERY DATE:</t>
-    </r>
-  </si>
-  <si>
-    <t>NO  </t>
-  </si>
-  <si>
-    <t>ITEM NO.</t>
-  </si>
-  <si>
-    <t>PICTURE</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>SPECIFICATION</t>
-  </si>
-  <si>
-    <t>CTNS  </t>
-  </si>
-  <si>
-    <t>Q'TY/CTN </t>
-  </si>
-  <si>
-    <t>UNIT PRICE </t>
-  </si>
-  <si>
-    <t>TOTAL AMOUNT</t>
-  </si>
-  <si>
-    <t>CBM</t>
-  </si>
-  <si>
-    <t>G.W</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>货号   </t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>货物描述   </t>
-  </si>
-  <si>
-    <t>规格说明</t>
-  </si>
-  <si>
-    <t>箱数</t>
-  </si>
-  <si>
-    <t>装箱数</t>
-  </si>
-  <si>
-    <t>单价 </t>
-  </si>
-  <si>
-    <t> 金额   </t>
-  </si>
-  <si>
-    <t>体积</t>
-  </si>
-  <si>
-    <t>毛重</t>
-  </si>
-  <si>
-    <t>شماره </t>
-  </si>
-  <si>
-    <t>کد</t>
-  </si>
-  <si>
-    <t>جنس اسم</t>
-  </si>
-  <si>
-    <t>شرح </t>
-  </si>
-  <si>
-    <t>کارتن  </t>
-  </si>
-  <si>
-    <t>  تعداد </t>
-  </si>
-  <si>
-    <t>قیمت</t>
-  </si>
-  <si>
-    <t>مبلغ </t>
-  </si>
-  <si>
-    <t>حجم</t>
-  </si>
-  <si>
-    <t>ناخالص</t>
-  </si>
-  <si>
-    <t>#ContentRow#</t>
-  </si>
-  <si>
-    <t>"order_item_id"</t>
-  </si>
-  <si>
-    <t>"product_code"</t>
-  </si>
-  <si>
-    <t>"image_space"</t>
-  </si>
-  <si>
-    <t>"product_name"</t>
-  </si>
-  <si>
-    <t>"spec"</t>
-  </si>
-  <si>
-    <t>"quantity_per_unit"</t>
-  </si>
-  <si>
-    <t>"no_of_unit"</t>
-  </si>
-  <si>
-    <t>"item_price"</t>
-  </si>
-  <si>
-    <t>"item_total_price"</t>
-  </si>
-  <si>
-    <t>"volume_per_unit"</t>
-  </si>
-  <si>
-    <t>"weight_per_unit"</t>
-  </si>
-  <si>
-    <t>#FooterRow#</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">جمع</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve">deposit"                                                                                                                                                                                                                                                                                                              </t>
+    </r>
+  </si>
+  <si>
+    <t>"special_remarks"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">公司</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">TOTAL:</t>
-    </r>
-  </si>
-  <si>
-    <t>{sum}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SPECIAL REMARKS </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
+      <t xml:space="preserve">OFFICE</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">特别备注：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">唛头 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">□</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">客户</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">MARKS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">CLIENT  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">：</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                </t>
-    </r>
-  </si>
-  <si>
-    <t>"marks"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">定金</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">DEPOSIT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">"deposit"                                                                                                                                                                                                                                                                                                              </t>
-    </r>
-  </si>
-  <si>
-    <t>"special_remarks"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">公司</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">OFFICE</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">□</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">客户</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">CLIENT  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">□</t>
-    </r>
-  </si>
-  <si>
     <t>注意事项及要求：</t>
   </si>
   <si>
-    <t>余额： </t>
+    <t>余额：</t>
   </si>
   <si>
     <r>
@@ -744,7 +717,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="\¥#,##0.00\ ;&quot;(¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -766,12 +739,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -815,6 +782,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -851,11 +826,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -866,6 +848,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFDD0806"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color rgb="FFDD0806"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -877,6 +866,7 @@
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1105,12 +1095,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1119,42 +1109,46 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1167,7 +1161,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,11 +1173,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1191,7 +1185,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1199,35 +1193,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1235,14 +1229,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1259,7 +1253,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1275,51 +1269,51 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1335,7 +1329,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="常规_Sheet3" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in 常规_Sheet3" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1416,15 +1410,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>403560</xdr:colOff>
+      <xdr:colOff>804960</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>426960</xdr:rowOff>
+      <xdr:rowOff>271440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1433,8 +1427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8520480" y="4549680"/>
-          <a:ext cx="1710360" cy="228600"/>
+          <a:off x="8736480" y="4477680"/>
+          <a:ext cx="1707480" cy="225720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1455,15 +1449,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>441720</xdr:colOff>
+      <xdr:colOff>843120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>469440</xdr:rowOff>
+      <xdr:rowOff>313920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>326880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>430200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1472,8 +1466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8558640" y="4592160"/>
-          <a:ext cx="1250640" cy="119160"/>
+          <a:off x="8774640" y="4520160"/>
+          <a:ext cx="1247760" cy="116280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1528,7 +1522,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1536,7 +1530,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72169811320755"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.60849056603774"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.7122641509434"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.0566037735849"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.62735849056604"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8349056603774"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.2735849056604"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.55660377358491"/>
@@ -1553,15 +1547,13 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1580,7 +1572,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1594,14 +1586,12 @@
       <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="0"/>
       <c r="F3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1615,18 +1605,20 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
@@ -1634,515 +1626,515 @@
       <c r="A5" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="13"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="13"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="13"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="L10" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="I11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="J11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="L11" s="21" t="s">
         <v>47</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="H12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="I12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="J12" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="K12" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="L12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="22" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="E13" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="G13" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="H13" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="I13" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="J13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="L13" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>73</v>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38" t="s">
+      <c r="F15" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="G15" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+        <v>70</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
     </row>
     <row r="19" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
+        <v>70</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+        <v>70</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
+        <v>70</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="C1:D3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>

--- a/public/system/spreadsheet/template/order_template.xlsx
+++ b/public/system/spreadsheet/template/order_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>#HeaderRow#</t>
   </si>
@@ -511,6 +511,9 @@
       </rPr>
       <t xml:space="preserve">deposit"                                                                                                                                                                                                                                                                                                              </t>
     </r>
+  </si>
+  <si>
+    <t>收货信息</t>
   </si>
   <si>
     <t>"special_remarks"</t>
@@ -598,12 +601,8 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">，具体交货日期以我公司电话通知为准，未与我公司确认，擅自送货者，我公司不予收货；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
+      <t xml:space="preserve">，具体交货日期以我公司电话通知为准，未与我公司确认，擅自送货者，我公司不予收货；
+2</t>
     </r>
     <r>
       <rPr>
@@ -612,82 +611,12 @@
         <color rgb="FF0000D4"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，此单须我公司采购经理签字后方能生效，送货，请携带此单；</t>
-    </r>
-  </si>
-  <si>
-    <t>交货后           天内付款</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF0000D4"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，质量要求：产品的质量，尺寸，包装，重量等必须与样品一致，否则我公司有权拒收货物，并全额收取定金；</t>
-    </r>
-  </si>
-  <si>
-    <t>仓库地址：</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF0000D4"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，包装要求：标准出口纸箱，必须牢固，整洁，无破损，并打四条打包带、套编织带，并注明准确的箱柜及重量和其它客户要求标识；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF0000D4"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，付款时间及方式：此采购单做为付款凭证使用，我公司将在约定时间内将货款汇入供货商指定的银行账户；</t>
-    </r>
-  </si>
-  <si>
-    <t>收货人：</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF0000D4"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，违约责任：供货商逾期不能交货的，或者改单的必须提前通知我公司，否则我公司有权取消采购单，并全额收回定金，一切损失由供货商承担</t>
+      </rPr>
+      <t xml:space="preserve">，此单须我公司采购经理签字后方能生效，送货，请携带此单；
+3，质量要求：产品的质量，尺寸，包装，重量等必须与样品一致，否则我公司有权拒收货物，并全额收取定金；
+4，包装要求：标准出口纸箱，必须牢固，整洁，无破损，并打四条打包带、套编织带，并注明准确的箱柜及重量和其它客户要求标识；
+5，付款时间及方式：此采购单做为付款凭证使用，我公司将在约定时间内将货款汇入供货商指定的银行账户；
+6，违约责任：供货商逾期不能交货的，或者改单的必须提前通知我公司，否则我公司有权取消采购单，并全额收回定金，一切损失由供货商承担</t>
     </r>
     <r>
       <rPr>
@@ -696,10 +625,18 @@
         <color rgb="FF0000D4"/>
         <rFont val="幼圆"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
+  </si>
+  <si>
+    <t>交货后           天内付款</t>
+  </si>
+  <si>
+    <t>仓库地址：</t>
+  </si>
+  <si>
+    <t>收货人：</t>
   </si>
   <si>
     <t>日  期：</t>
@@ -717,7 +654,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="\¥#,##0.00\ ;&quot;(¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -885,11 +822,10 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF3366FF"/>
+      <sz val="13"/>
+      <color rgb="FF0000CC"/>
       <name val="幼圆"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -939,15 +875,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF0000D4"/>
+      <name val="宋体"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF0000D4"/>
+      <name val="幼圆"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="幼圆"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFCC"/>
       <name val="幼圆"/>
       <family val="0"/>
     </font>
@@ -1100,7 +1043,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1270,7 +1213,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1294,23 +1237,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1329,7 +1264,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in 常规_Sheet3" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in 常规_Sheet3" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1375,7 +1310,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000CC"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -1410,15 +1345,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>804960</xdr:colOff>
+      <xdr:colOff>870120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>271440</xdr:rowOff>
+      <xdr:rowOff>304920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>420840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1427,47 +1362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8736480" y="4477680"/>
-          <a:ext cx="1707480" cy="225720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="281c5a"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="3366ff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>843120</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>313920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>326880</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>430200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8774640" y="4520160"/>
-          <a:ext cx="1247760" cy="116280"/>
+          <a:off x="8801640" y="4511160"/>
+          <a:ext cx="1247400" cy="115920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,16 +1391,6 @@
             </a:rPr>
             <a:t>       </a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-SG" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="ffffcc"/>
-              </a:solidFill>
-              <a:latin typeface="幼圆"/>
-              <a:ea typeface="幼圆"/>
-            </a:rPr>
-            <a:t>收货信息</a:t>
-          </a:r>
           <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
@@ -1522,7 +1408,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1934,7 +1820,9 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="42" t="s">
+        <v>77</v>
+      </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
     </row>
@@ -1943,14 +1831,14 @@
         <v>70</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
       <c r="E16" s="39"/>
       <c r="F16" s="40"/>
       <c r="G16" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
@@ -1968,7 +1856,7 @@
       <c r="E17" s="39"/>
       <c r="F17" s="40"/>
       <c r="G17" s="45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
@@ -1981,7 +1869,7 @@
         <v>70</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -1991,7 +1879,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -2001,7 +1889,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
@@ -2018,9 +1906,7 @@
       <c r="A20" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>83</v>
-      </c>
+      <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
@@ -2038,18 +1924,16 @@
       <c r="A21" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49" t="s">
         <v>85</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="49" t="s">
-        <v>86</v>
       </c>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
@@ -2058,36 +1942,32 @@
       <c r="A22" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
@@ -2096,42 +1976,40 @@
       <c r="A24" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
+      <c r="B25" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="28">
     <mergeCell ref="C1:D3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:I4"/>
@@ -2153,16 +2031,11 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J18:L19"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B19:I24"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B22:I22"/>
     <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B23:I23"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B24:I24"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="B25:L25"/>
   </mergeCells>

--- a/public/system/spreadsheet/template/order_template.xlsx
+++ b/public/system/spreadsheet/template/order_template.xlsx
@@ -498,7 +498,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">               "</t>
+      <t xml:space="preserve">               "order_</t>
     </r>
     <r>
       <rPr>
@@ -669,12 +669,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="32"/>
       <color rgb="FF000000"/>
@@ -755,6 +749,12 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
@@ -1005,7 +1005,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,87 +1019,87 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1163,15 +1163,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1183,7 +1183,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1215,7 +1215,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1227,7 +1227,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="样式 1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in 样式 1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1308,15 +1308,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>897120</xdr:colOff>
+      <xdr:colOff>924120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>295920</xdr:rowOff>
+      <xdr:rowOff>286920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>380160</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
+      <xdr:rowOff>402120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1325,8 +1325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8828640" y="4502160"/>
-          <a:ext cx="1247040" cy="115560"/>
+          <a:off x="8855640" y="4493160"/>
+          <a:ext cx="1246680" cy="115200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,8 +1370,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/public/system/spreadsheet/template/order_template.xlsx
+++ b/public/system/spreadsheet/template/order_template.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="15795" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="Order" sheetId="1" r:id="rId4"/>
+    <sheet name="Order" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>#HeaderRow#</t>
   </si>
@@ -19,13 +22,13 @@
     <t>#image_logo#</t>
   </si>
   <si>
-    <t xml:space="preserve">    利恩国际贸易有限公司</t>
-  </si>
-  <si>
-    <t>LION INTERNATIONAL TRADING  CO.,LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               采购单 PURCHASE LIST</t>
+    <t xml:space="preserve">     利恩国际贸易有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LION INTERNATIONAL TRADING  CO.,LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  采购单 PURCHASE LIST</t>
   </si>
   <si>
     <r>
@@ -33,6 +36,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>公司地址</t>
     </r>
@@ -41,6 +45,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>OFFICE ADD</t>
     </r>
@@ -49,6 +54,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>：浙江省义乌市长春三街50号301室</t>
     </r>
@@ -71,6 +77,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">供应商 </t>
     </r>
@@ -79,6 +86,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">SUPPLIER </t>
     </r>
@@ -87,6 +95,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>：</t>
     </r>
@@ -100,6 +109,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>邮箱</t>
     </r>
@@ -108,6 +118,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>E-mail:</t>
     </r>
@@ -118,6 +129,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>liontradeco@yahoo.com</t>
     </r>
@@ -128,6 +140,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">电  话 </t>
     </r>
@@ -136,6 +149,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>TEL:</t>
     </r>
@@ -155,6 +169,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">联系人 </t>
     </r>
@@ -163,6 +178,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>CONTECT:</t>
     </r>
@@ -176,6 +192,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">跟单员 </t>
     </r>
@@ -184,6 +201,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>Follower</t>
     </r>
@@ -192,6 +210,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>：</t>
     </r>
@@ -205,6 +224,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">采购日期 </t>
     </r>
@@ -213,6 +233,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>PURCHASE DATE:</t>
     </r>
@@ -223,6 +244,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">客户名 </t>
     </r>
@@ -231,6 +253,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>CLIENT</t>
     </r>
@@ -239,6 +262,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>：</t>
     </r>
@@ -252,6 +276,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">交货日期 </t>
     </r>
@@ -260,6 +285,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>DELIVERY DATE:</t>
     </r>
@@ -405,6 +431,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="FreeSans"/>
+        <charset val="134"/>
       </rPr>
       <t>جمع</t>
     </r>
@@ -413,6 +440,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>TOTAL:</t>
     </r>
@@ -423,6 +451,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>{</t>
     </r>
@@ -431,6 +460,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>order_total_ctns</t>
     </r>
@@ -439,6 +469,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -449,6 +480,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>{order_total_price</t>
     </r>
@@ -457,6 +489,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -467,6 +500,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>{</t>
     </r>
@@ -475,6 +509,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>order_total_volume</t>
     </r>
@@ -483,6 +518,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -493,6 +529,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>{</t>
     </r>
@@ -501,6 +538,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>order_total_weight</t>
     </r>
@@ -509,6 +547,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -519,6 +558,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">SPECIAL REMARKS </t>
     </r>
@@ -527,6 +567,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>特别备注：</t>
     </r>
@@ -537,6 +578,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">唛头 </t>
     </r>
@@ -545,6 +587,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>MARKS</t>
     </r>
@@ -553,6 +596,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：                                                </t>
     </r>
@@ -566,6 +610,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>定金</t>
     </r>
@@ -574,6 +619,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>DEPOSIT</t>
     </r>
@@ -582,6 +628,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>：               "order_</t>
     </r>
@@ -590,6 +637,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">deposit"                                                                                                                                                                                                                                                                                                              </t>
     </r>
@@ -606,6 +654,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>公司</t>
     </r>
@@ -614,6 +663,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>OFFICE</t>
     </r>
@@ -622,6 +672,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -630,6 +681,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>□</t>
     </r>
@@ -640,6 +692,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>客户</t>
     </r>
@@ -648,6 +701,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">CLIENT  </t>
     </r>
@@ -656,6 +710,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>□</t>
     </r>
@@ -672,6 +727,7 @@
         <sz val="9"/>
         <color indexed="14"/>
         <rFont val="幼圆"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -680,6 +736,7 @@
         <sz val="9"/>
         <color indexed="14"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">，具体交货日期以我公司电话通知为准，未与我公司确认，擅自送货者，我公司不予收货；
 </t>
@@ -689,6 +746,7 @@
         <sz val="9"/>
         <color indexed="14"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2，此单须我公司采购经理签字后方能生效，送货，请携带此单；
 </t>
@@ -698,6 +756,7 @@
         <sz val="9"/>
         <color indexed="14"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3，质量要求：产品的质量，尺寸，包装，重量等必须与样品一致，否则我公司有权拒收货物，并全额收取定金；
 </t>
@@ -707,6 +766,7 @@
         <sz val="9"/>
         <color indexed="14"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">4，包装要求：标准出口纸箱，必须牢固，整洁，无破损，并打四条打包带、套编织带，并注明准确的箱柜及重量和其它客户要求标识；
 </t>
@@ -716,6 +776,7 @@
         <sz val="9"/>
         <color indexed="14"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">5，付款时间及方式：此采购单做为付款凭证使用，我公司将在约定时间内将货款汇入供货商指定的银行账户；
 </t>
@@ -725,6 +786,7 @@
         <sz val="9"/>
         <color indexed="14"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>6，违约责任：供货商逾期不能交货的，或者改单的必须提前通知我公司，否则我公司有权取消采购单，并全额收回定金，一切损失由供货商承担</t>
     </r>
@@ -733,6 +795,7 @@
         <sz val="9"/>
         <color indexed="14"/>
         <rFont val="幼圆"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -757,128 +820,293 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="幼圆"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="32"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="23"/>
       <color indexed="8"/>
       <name val="Franklin Gothic Demi Cond"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="FreeSans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="FreeSans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="14"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="FreeSans"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color indexed="11"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="FreeSans"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="12"/>
       <name val="宋体"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="13"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="14"/>
-      <name val="幼圆"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="14"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,11 +1116,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -912,26 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -944,33 +1338,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1125,17 +1492,6 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -1157,253 +1513,611 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffdd0806"/>
-      <rgbColor rgb="ff0000cc"/>
-      <rgbColor rgb="ffff6600"/>
-      <rgbColor rgb="ff0000d4"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00DD0806"/>
+      <rgbColor rgb="000000CC"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>657420</xdr:colOff>
+      <xdr:colOff>600270</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>100218</xdr:rowOff>
+      <xdr:rowOff>60210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>673495</xdr:colOff>
+      <xdr:colOff>665480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>304688</xdr:rowOff>
+      <xdr:rowOff>264680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1412,8 +2126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9890320" y="4306459"/>
-          <a:ext cx="2073476" cy="204471"/>
+          <a:off x="8519160" y="4265930"/>
+          <a:ext cx="1829435" cy="204470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,11 +2138,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
@@ -1450,8 +2159,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1466,7 +2174,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:rPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1481,6 +2189,19 @@
             </a:rPr>
             <a:t>       </a:t>
           </a:r>
+          <a:endParaRPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="幼圆"/>
+            <a:ea typeface="幼圆"/>
+            <a:cs typeface="幼圆"/>
+            <a:sym typeface="幼圆"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1490,7 +2211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1689,8 +2410,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1710,8 +2429,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1740,8 +2458,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1766,8 +2483,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1792,8 +2508,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1818,8 +2533,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1844,8 +2558,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1870,8 +2583,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1896,8 +2608,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1922,8 +2633,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1948,8 +2658,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1962,9 +2671,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1978,8 +2693,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1999,8 +2712,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2025,8 +2737,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2051,8 +2762,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2077,8 +2787,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2103,8 +2812,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2129,8 +2837,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2155,8 +2862,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2181,8 +2887,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2207,8 +2912,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2233,8 +2937,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2247,9 +2950,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2260,8 +2969,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -2281,8 +2988,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2311,8 +3017,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2337,8 +3042,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2363,8 +3067,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2389,8 +3092,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2415,8 +3117,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2441,8 +3142,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2467,8 +3167,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2493,8 +3192,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2519,8 +3217,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2533,52 +3230,60 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71666666666667" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.57812" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73438" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.57812" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8672" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.2891" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.57812" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7344" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.86719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5781" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.57812" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28906" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.575" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.575" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.2916666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.575" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.86666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4416666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.575" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.575" style="1" customWidth="1"/>
+    <col min="12" max="256" width="8.73333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.7" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="39.7" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6"/>
@@ -2587,608 +3292,608 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
+      <c r="L1" s="50"/>
     </row>
-    <row r="2" ht="27.7" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="2" ht="27.7" customHeight="1" spans="1:12">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" t="s" s="11">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="51"/>
     </row>
-    <row r="3" ht="27.35" customHeight="1">
-      <c r="A3" t="s" s="8">
+    <row r="3" ht="27.35" customHeight="1" spans="1:12">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" t="s" s="15">
+      <c r="B3" s="12"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="51"/>
     </row>
-    <row r="4" ht="19.35" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" ht="19.35" customHeight="1" spans="1:12">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s" s="16">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" t="s" s="17">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" t="s" s="17">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="52"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" ht="19" customHeight="1" spans="1:12">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s" s="19">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" t="s" s="19">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="19"/>
-      <c r="G5" t="s" s="20">
+      <c r="E5" s="8"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" t="s" s="21">
+      <c r="H5" s="17"/>
+      <c r="I5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
     </row>
-    <row r="6" ht="19.35" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" ht="19.35" customHeight="1" spans="1:12">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s" s="20">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" t="s" s="19">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="19"/>
-      <c r="G6" t="s" s="20">
+      <c r="E6" s="8"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" t="s" s="19">
+      <c r="H6" s="18"/>
+      <c r="I6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="23"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="55"/>
     </row>
-    <row r="7" ht="17.35" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" ht="17.35" customHeight="1" spans="1:12">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s" s="19">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" t="s" s="26">
+      <c r="C7" s="16"/>
+      <c r="D7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" t="s" s="20">
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" t="s" s="19">
+      <c r="H7" s="18"/>
+      <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="23"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="55"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" ht="19" customHeight="1" spans="1:12">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s" s="20">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" t="s" s="19">
+      <c r="C8" s="17"/>
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" t="s" s="20">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="23"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="55"/>
     </row>
-    <row r="9" ht="20.85" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" ht="20.85" customHeight="1" spans="1:12">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s" s="30">
+      <c r="B9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" t="s" s="31">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" t="s" s="30">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
     </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="34">
+    <row r="10" ht="22.35" customHeight="1" spans="1:12">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s" s="35">
+      <c r="B10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s" s="35">
+      <c r="C10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s" s="35">
+      <c r="D10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s" s="35">
+      <c r="E10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s" s="35">
+      <c r="F10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s" s="35">
+      <c r="G10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s" s="35">
+      <c r="H10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I10" t="s" s="35">
+      <c r="I10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J10" t="s" s="35">
+      <c r="J10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K10" t="s" s="35">
+      <c r="K10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L10" t="s" s="35">
+      <c r="L10" s="60" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="17.7" customHeight="1">
-      <c r="A11" t="s" s="34">
+    <row r="11" ht="17.7" customHeight="1" spans="1:12">
+      <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s" s="35">
+      <c r="B11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s" s="35">
+      <c r="C11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s" s="36">
+      <c r="D11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s" s="35">
+      <c r="E11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s" s="35">
+      <c r="F11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s" s="35">
+      <c r="G11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s" s="35">
+      <c r="H11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I11" t="s" s="35">
+      <c r="I11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J11" t="s" s="35">
+      <c r="J11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K11" t="s" s="35">
+      <c r="K11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L11" t="s" s="35">
+      <c r="L11" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="18.7" customHeight="1">
-      <c r="A12" t="s" s="34">
+    <row r="12" ht="18.7" customHeight="1" spans="1:12">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s" s="37">
+      <c r="B12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s" s="37">
+      <c r="C12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" t="s" s="37">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s" s="38">
+      <c r="F12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s" s="37">
+      <c r="G12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H12" t="s" s="37">
+      <c r="H12" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I12" t="s" s="37">
+      <c r="I12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="J12" t="s" s="37">
+      <c r="J12" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K12" t="s" s="37">
+      <c r="K12" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L12" t="s" s="37">
+      <c r="L12" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="36.55" customHeight="1">
-      <c r="A13" t="s" s="34">
+    <row r="13" ht="36.55" customHeight="1" spans="1:12">
+      <c r="A13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s" s="39">
+      <c r="B13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s" s="39">
+      <c r="C13" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s" s="39">
+      <c r="D13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s" s="40">
+      <c r="E13" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s" s="41">
+      <c r="F13" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s" s="39">
+      <c r="G13" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H13" t="s" s="39">
+      <c r="H13" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I13" t="s" s="39">
+      <c r="I13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J13" t="s" s="39">
+      <c r="J13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="K13" t="s" s="39">
+      <c r="K13" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="L13" t="s" s="42">
+      <c r="L13" s="61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" ht="26.25" customHeight="1">
-      <c r="A14" t="s" s="34">
+    <row r="14" ht="26.25" customHeight="1" spans="1:12">
+      <c r="A14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s" s="43">
+      <c r="B14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" t="s" s="46">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" t="s" s="46">
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="K14" t="s" s="46">
+      <c r="K14" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="L14" t="s" s="42">
+      <c r="L14" s="61" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" ht="37" customHeight="1">
-      <c r="A15" t="s" s="34">
+    <row r="15" ht="37" customHeight="1" spans="1:12">
+      <c r="A15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s" s="48">
+      <c r="B15" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" t="s" s="49">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F15" t="s" s="50">
+      <c r="F15" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G15" t="s" s="51">
+      <c r="G15" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" t="s" s="52">
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
     </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" t="s" s="34">
+    <row r="16" ht="20" customHeight="1" spans="1:12">
+      <c r="A16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s" s="53">
+      <c r="B16" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="54"/>
-      <c r="G16" t="s" s="55">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
     </row>
-    <row r="17" ht="19" customHeight="1">
-      <c r="A17" t="s" s="34">
+    <row r="17" ht="19" customHeight="1" spans="1:12">
+      <c r="A17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="54"/>
-      <c r="G17" t="s" s="55">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
     </row>
-    <row r="18" ht="21.7" customHeight="1">
-      <c r="A18" t="s" s="34">
+    <row r="18" ht="21.7" customHeight="1" spans="1:12">
+      <c r="A18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s" s="57">
+      <c r="B18" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" t="s" s="55">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
     </row>
-    <row r="19" ht="18.35" customHeight="1">
-      <c r="A19" t="s" s="34">
+    <row r="19" ht="18.35" customHeight="1" spans="1:12">
+      <c r="A19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s" s="58">
+      <c r="B19" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
     </row>
-    <row r="20" ht="19.7" customHeight="1">
-      <c r="A20" t="s" s="34">
+    <row r="20" ht="19.7" customHeight="1" spans="1:12">
+      <c r="A20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" t="s" s="60">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
     </row>
-    <row r="21" ht="19.35" customHeight="1">
-      <c r="A21" t="s" s="34">
+    <row r="21" ht="19.35" customHeight="1" spans="1:12">
+      <c r="A21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" t="s" s="60">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
     </row>
-    <row r="22" ht="19.7" customHeight="1">
-      <c r="A22" t="s" s="34">
+    <row r="22" ht="19.7" customHeight="1" spans="1:12">
+      <c r="A22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
-    <row r="23" ht="19.7" customHeight="1">
-      <c r="A23" t="s" s="34">
+    <row r="23" ht="19.7" customHeight="1" spans="1:12">
+      <c r="A23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" t="s" s="60">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
     </row>
-    <row r="24" ht="25" customHeight="1">
-      <c r="A24" t="s" s="34">
+    <row r="24" ht="25" customHeight="1" spans="1:12">
+      <c r="A24" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" t="s" s="63">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
     </row>
-    <row r="25" ht="20.7" customHeight="1">
-      <c r="A25" t="s" s="64">
+    <row r="25" ht="20.7" customHeight="1" spans="1:12">
+      <c r="A25" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s" s="65">
+      <c r="B25" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="E1:L1"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
     <mergeCell ref="B25:L25"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B19:I24"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="J15:L17"/>
     <mergeCell ref="J18:L19"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J15:L17"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B19:I24"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D6" r:id="rId2" display="liontradeco@yahoo.com"/>
   </hyperlinks>
-  <pageMargins left="0.235417" right="0.235417" top="0.313889" bottom="0.15625" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.313888888888889" bottom="0.15625" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/system/spreadsheet/template/order_template.xlsx
+++ b/public/system/spreadsheet/template/order_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15795" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -822,9 +822,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -865,12 +865,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -941,6 +935,13 @@
       <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1004,6 +1005,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1045,28 +1053,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,6 +1086,12 @@
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1121,13 +1121,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,25 +1199,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,30 +1283,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1241,72 +1295,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1510,6 +1510,34 @@
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1630,10 +1658,10 @@
     <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1642,137 +1670,137 @@
     <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1800,15 +1828,9 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1830,13 +1852,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,28 +1870,28 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,19 +1918,19 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,19 +1939,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,11 +1951,14 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1965,19 +1972,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3255,7 +3262,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71666666666667" defaultRowHeight="14.25" customHeight="1"/>
@@ -3292,568 +3299,568 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="50"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" ht="27.7" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="51"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" ht="27.35" customHeight="1" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="51"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" ht="19.35" customHeight="1" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="52"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="53" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="55"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" ht="19.35" customHeight="1" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="55"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" ht="17.35" customHeight="1" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="55"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" ht="20.85" customHeight="1" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" ht="22.35" customHeight="1" spans="1:12">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" ht="17.7" customHeight="1" spans="1:12">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" ht="18.7" customHeight="1" spans="1:12">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" ht="36.55" customHeight="1" spans="1:12">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="54" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" ht="26.25" customHeight="1" spans="1:12">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63" t="s">
+      <c r="I14" s="55"/>
+      <c r="J14" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="54" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" ht="37" customHeight="1" spans="1:12">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="64" t="s">
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:12">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:12">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" ht="21.7" customHeight="1" spans="1:12">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="43" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" ht="18.35" customHeight="1" spans="1:12">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" ht="19.7" customHeight="1" spans="1:12">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="66" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" ht="19.35" customHeight="1" spans="1:12">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="66" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" ht="19.7" customHeight="1" spans="1:12">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" ht="19.7" customHeight="1" spans="1:12">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="66" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:12">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="68" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="25" ht="20.7" customHeight="1" spans="1:12">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E3:L3"/>
@@ -3861,7 +3868,6 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="B9:C9"/>
